--- a/phone_numbers.xlsx
+++ b/phone_numbers.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -39,13 +39,24 @@
       <family val="0"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -79,11 +90,17 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -92,15 +109,18 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -406,77 +426,56 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1:B8"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="4" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="5">
-      <c r="A1" s="4" t="n">
-        <v>2039804506</v>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
+    <row customHeight="1" ht="12.8" r="1" s="6">
+      <c r="A1" s="5" t="n">
+        <v>2036711579</v>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>SENT</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="5">
-      <c r="A2" s="4" t="n">
-        <v>2039804506</v>
-      </c>
-      <c r="B2" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="3" s="5">
-      <c r="A3" s="4" t="n">
-        <v>2039804506</v>
-      </c>
-      <c r="B3" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="4" s="5">
-      <c r="A4" s="4" t="n">
-        <v>2039804506</v>
-      </c>
-      <c r="B4" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="5" s="5">
-      <c r="A5" s="4" t="n">
-        <v>2039804506</v>
-      </c>
-      <c r="B5" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="6" s="5">
-      <c r="A6" s="4" t="n">
-        <v>4536453453</v>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
+    <row customHeight="1" ht="12.8" r="2" s="6">
+      <c r="A2" s="8" t="n">
+        <v>2036711579</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="6">
+      <c r="A3" s="8" t="n">
+        <v>2036711579</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="6">
+      <c r="A4" s="8" t="n">
+        <v>2036711579</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="6">
+      <c r="A5" s="8" t="n">
+        <v>2036711579</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="6">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="5">
-      <c r="A7" s="4" t="n">
-        <v>4136453453</v>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>SENT</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="8" s="5">
-      <c r="A8" s="4" t="n">
-        <v>6536453453</v>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
+    <row customHeight="1" ht="12.8" r="7" s="6">
+      <c r="B7" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="6">
+      <c r="B8" s="10" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
